--- a/xlsx/可持续交通系统_intext.xlsx
+++ b/xlsx/可持续交通系统_intext.xlsx
@@ -29,7 +29,7 @@
     <t>英文</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_可持续交通系统</t>
+    <t>政策_政策_混合动力车辆_可持续交通系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>綠色車輛</t>
+    <t>绿色车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%82%E8%83%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E9%9C%A7</t>
   </si>
   <si>
-    <t>煙霧</t>
+    <t>烟雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%8B%A4</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E6%93%A0%E5%A1%9E</t>
   </si>
   <si>
-    <t>交通擠塞</t>
+    <t>交通挤塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E8%A7%84%E5%88%92</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%80%A7</t>
   </si>
   <si>
-    <t>可持續性</t>
+    <t>可持续性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E7%94%B5%E8%81%94%E4%BA%A7</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%BA%90%E7%86%B1%E6%B3%B5%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>地源熱泵系統</t>
+    <t>地源热泵系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>微型發電</t>
+    <t>微型发电</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Passive_solar_building_design</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%AD%E6%B0%A7%E6%B6%88%E5%8C%96</t>
   </si>
   <si>
-    <t>厭氧消化</t>
+    <t>厌氧消化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%87%83%E6%96%99</t>
@@ -245,25 +245,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%90%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>潮汐發電</t>
+    <t>潮汐发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%B5%AA%E8%83%BD</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%B1%BD%E8%BD%A6</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E5%8B%95%E5%8A%9B%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>氫動力汽車</t>
+    <t>氢动力汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E7%94%B5%E5%BC%8F%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B%E6%B1%BD%E8%BD%A6</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>Template talk-可持續能源</t>
+    <t>Template talk-可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E5%91%A8%E6%9C%9F</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%9A%E8%A6%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>世界博覽會</t>
+    <t>世界博览会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E6%98%93%E6%96%AF%C2%B7%E8%8A%92%E7%A6%8F%E5%BE%B7</t>
   </si>
   <si>
-    <t>劉易斯·芒福德</t>
+    <t>刘易斯·芒福德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%C2%B7%E9%9B%85%E5%90%84%E5%B8%83%E6%96%AF</t>
@@ -425,25 +425,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>休斯頓</t>
+    <t>休斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/10%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>10號州際公路</t>
+    <t>10号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/45%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>45號州際公路</t>
+    <t>45号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -521,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>公車</t>
+    <t>公车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>捷運</t>
+    <t>捷运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Transport_for_London</t>
@@ -563,19 +563,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A0%B1</t>
   </si>
   <si>
-    <t>聯合報</t>
+    <t>联合报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%94%9F%E6%B4%BB</t>
   </si>
   <si>
-    <t>綠色生活</t>
+    <t>绿色生活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%8B%E5%96%84</t>
   </si>
   <si>
-    <t>環境友善</t>
+    <t>环境友善</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -587,19 +587,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>環境倫理</t>
+    <t>环境伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%92%B0%E5%A2%83%E8%88%87%E7%99%BC%E5%B1%95%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>里約環境與發展宣言</t>
+    <t>里约环境与发展宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%8F%BE%E4%BB%A3%E5%8C%96</t>
   </si>
   <si>
-    <t>生態現代化</t>
+    <t>生态现代化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
@@ -617,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%94%9F%E8%82%B2</t>
   </si>
   <si>
-    <t>計劃生育</t>
+    <t>计划生育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
@@ -635,37 +635,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反消費主義</t>
+    <t>反消费主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>生態足跡</t>
+    <t>生态足迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E7%9F%A5%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>良知消費</t>
+    <t>良知消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%BA%A6%E6%B6%88%E8%80%97</t>
   </si>
   <si>
-    <t>過度消耗</t>
+    <t>过度消耗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>公地悲劇</t>
+    <t>公地悲剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
@@ -677,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>糧食安全</t>
+    <t>粮食安全</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Local_food</t>
@@ -695,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
   </si>
   <si>
-    <t>樸門</t>
+    <t>朴门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>永續農業</t>
+    <t>永续农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_fishery</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>水危機</t>
+    <t>水危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E6%B0%B4%E6%95%88%E7%8E%87</t>
@@ -731,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E7%94%A8%E6%B0%B4</t>
   </si>
   <si>
-    <t>節約用水</t>
+    <t>节约用水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>碳足跡</t>
+    <t>碳足迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%B1%A1%E4%BA%A4%E6%98%93</t>
@@ -779,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業生態學</t>
+    <t>工业生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%88</t>
@@ -809,25 +809,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>瀕危物種</t>
+    <t>濒危物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%B0%E4%B8%96%E6%BB%85%E7%B5%95%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>全新世滅絕事件</t>
+    <t>全新世灭绝事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>入侵物種</t>
+    <t>入侵物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%BB%B4%E6%8C%81%E4%BA%A7%E9%87%8F</t>
@@ -845,19 +845,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>永續運輸</t>
+    <t>永续运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%8C%96%E5%AD%A6</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%B2</t>
   </si>
   <si>
-    <t>環境史</t>
+    <t>环境史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B3%95</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境科學</t>
+    <t>环境科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%8E%AF%E5%A2%83%E5%AE%A3%E8%A8%80</t>
@@ -911,25 +911,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E7%89%B9%E8%98%AD%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>布倫特蘭委員會</t>
+    <t>布伦特兰委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>地球高峰會</t>
+    <t>地球高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/21%E4%B8%96%E7%B4%80%E8%AD%B0%E7%A8%8B</t>
   </si>
   <si>
-    <t>21世紀議程</t>
+    <t>21世纪议程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>生物多樣性公約</t>
+    <t>生物多样性公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%AE%AA%E7%AB%A0</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E5%B9%B4%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>千禧年生態系統評估</t>
+    <t>千禧年生态系统评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%98%86%E5%AE%A3%E8%A8%80</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>大氣擴散模式</t>
+    <t>大气扩散模式</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_solid_waste_treatment_technologies</t>
@@ -1001,19 +1001,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%B4%E8%99%95%E7%90%86%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>廢水處理技術列表</t>
+    <t>废水处理技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B7%A8%E5%8C%96</t>
   </si>
   <si>
-    <t>水淨化</t>
+    <t>水净化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%AA%E6%B5%81%E7%AB%99</t>
@@ -1067,13 +1067,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>電動載具</t>
+    <t>电动载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>自然建築</t>
+    <t>自然建筑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_architecture</t>
@@ -1085,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>保育倫理</t>
+    <t>保育伦理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecoforestry</t>
@@ -1103,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境維護</t>
+    <t>环境维护</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_remediation</t>
@@ -5288,7 +5288,7 @@
         <v>260</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
